--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -451,547 +451,735 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.0438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>283.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20.2938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16.4509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>175.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.9779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.4818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>000894</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>中欧睿达定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>23.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>009648</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>23.54</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004606</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根优选多因子股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004175</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004176</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519756</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161728</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>25.84</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501188</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>31.27</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1210,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000418</t>
+          <t>161728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城成长之星</t>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>290.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.0233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001938</t>
+          <t>501188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票A</t>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>178.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.9516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004241</t>
+          <t>501186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票C</t>
+          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>127.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.1288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>209.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.7835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>501189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>146.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.4008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004175</t>
+          <t>001938</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时鑫泰灵活配置混合A</t>
+          <t>中欧时代先锋股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>214.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.7634</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004176</t>
+          <t>501208</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时鑫泰灵活配置混合C</t>
+          <t>中欧创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004871</t>
+          <t>004241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银金融地产混合A</t>
+          <t>中欧时代先锋股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>41.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8979</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010312</t>
+          <t>010608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银金融地产混合C</t>
+          <t>华泰柏瑞质量领先混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8955</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,25 +1582,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002456</t>
+          <t>001811</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合A</t>
+          <t>中欧明睿新常态混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>35.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3668</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002457</t>
+          <t>004871</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合C</t>
+          <t>中银金融地产混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006610</t>
+          <t>519997</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华远见混合</t>
+          <t>长信银利精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000894</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧睿达定期开放混合A</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009648</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧睿达定期开放混合C</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>410009</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华富量子生命力混合</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>62.81</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>010609</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>华泰柏瑞质量领先混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>48.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1490,25 +1848,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>000418</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>景顺长城成长之星</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.80</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501186</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010608</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量领先混合A</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>48.99</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010609</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量领先混合C</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.99</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>501188</t>
+          <t>002456</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+          <t>招商安元灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>33.83</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501189</t>
+          <t>005765</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>中欧明睿新常态混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>31.32</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>501208</t>
+          <t>001254</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧创新未来18个月封闭运作混合A</t>
+          <t>泰达宏利新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001254</t>
+          <t>002457</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合A</t>
+          <t>招商安元灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002313</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰达宏利新起点灵活配置混合B</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001811</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合A</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005765</t>
+          <t>004175</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合C</t>
+          <t>博时鑫泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001829</t>
+          <t>004176</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
+          <t>博时鑫泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>000894</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>中欧睿达定期开放混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>519997</t>
+          <t>010312</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信银利精选混合</t>
+          <t>中银金融地产混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>002313</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>泰达宏利新起点灵活配置混合B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1966,25 +2494,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>001829</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1994,25 +2532,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>410009</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>华富量子生命力混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161728</t>
+          <t>006610</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>银华远见混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>79.69</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>5</v>
+          <t>53.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2134,26 +2722,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>009648</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>84.42</t>
-        </is>
-      </c>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -2746,6 +2746,1960 @@
       </c>
       <c r="H41" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>250.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4705,4 +4706,3174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>267.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5953</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7876,4 +7877,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.15000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7885,7 +7886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7896,17 +7897,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7916,14 +7937,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.1</v>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>267.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7932,14 +7975,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.86</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7948,14 +8013,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.89</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7964,13 +8051,3147 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11090,7 +11091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11101,17 +11102,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11121,14 +11142,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.21</v>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>265.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11137,14 +11180,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.1</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11153,14 +11218,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.86</v>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11169,14 +11256,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.89</v>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -11185,13 +11294,4491 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15661,7 +15662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15672,17 +15673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15692,14 +15713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>119</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.09</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -15708,14 +15751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.21</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -15724,14 +15789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.1</v>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -15740,14 +15827,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.86</v>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -15756,14 +15865,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>88.89</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -15772,13 +15903,5003 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0445</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5248</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008848</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融智选对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>62.04</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>62.04</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>33.84</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>24.43</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>25.09</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>13.21</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>24.86</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>88.89</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>81.15000000000001</v>
       </c>
     </row>
@@ -600,6 +617,4272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013334</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013335</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015679</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5703,7 +9986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10273,7 +14556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13477,7 +17760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16647,7 +20930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18601,7 +22884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20170,7 +24453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601658-邮储银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D2" t="n">
-        <v>20.29</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>24.43</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D4" t="n">
-        <v>25.09</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>13.21</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>30.1</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>24.86</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>88.89</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,768 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>81.15000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.0438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>283.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20.2938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16.4509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>175.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.9779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.4818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1372,4795 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富深化价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5555</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4989</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012253</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012088</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012089</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016690</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014888</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方红锦融甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012485</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013042</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012254</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012486</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>017426</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国富深化价值混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014889</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方红锦融甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4882,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9986,7 +15530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14556,7 +20100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17760,7 +23304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20930,7 +26474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22884,7 +28428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24451,742 +29995,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>277.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>22.0438</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161728</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>283.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20.2938</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>207.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>16.4509</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501188</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>175.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>31.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>12.9779</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501189</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>141.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.4818</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2156</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2012</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519756</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1111</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004175</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004176</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000894</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧睿达定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004606</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根优选多因子股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009648</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧睿达定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>